--- a/biology/Botanique/Loropetalum/Loropetalum.xlsx
+++ b/biology/Botanique/Loropetalum/Loropetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Loropetalum est un genre de quatre espèces d'arbustes ou de petits arbres de la famille des hamamélis, Hamamelidaceae, originaires de Chine, du Japon et du sud-est asiatique .
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleurs
-Les fleurs sont produites en grappes au printemps et sont semblables à celles de l'hamamélis, un parent proche. Chaque fleur se compose de quatre à six (selon l'espèce) pétales en forme de lanière de 1 à 2 cm de long. 
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont produites en grappes au printemps et sont semblables à celles de l'hamamélis, un parent proche. Chaque fleur se compose de quatre à six (selon l'espèce) pétales en forme de lanière de 1 à 2 cm de long. 
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Loropetalum fait référence à la forme des fleurs et vient du grec loron qui signifie sangle et petalon qui signifie pétale. 
 </t>
@@ -574,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 Sep 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 Sep 2010) :
 Loropetalum chinense</t>
         </is>
       </c>
